--- a/BlazorWeatherApp/WeatherApp_TasksEst.xlsx
+++ b/BlazorWeatherApp/WeatherApp_TasksEst.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Sr. No</t>
   </si>
@@ -127,6 +127,9 @@
     <t>Code Review and Refactoring</t>
   </si>
   <si>
+    <t>Use AI for cleaning &amp; formatting codes.</t>
+  </si>
+  <si>
     <t>8-</t>
   </si>
   <si>
@@ -136,7 +139,7 @@
     <t>1 hour</t>
   </si>
   <si>
-    <t>Ideal it should take 1 hour but due configuration issue at my end it took 4 to 5 hours.</t>
+    <t>Ideal it should take 1 hour but due configuration issue at my end it took 4 to 5 hours.Used MS copilot for troubleshooting.</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,9 @@
       <c r="C26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5"/>
@@ -718,16 +723,16 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
